--- a/data/input_excel/IEEE_detoxify_language_model.xlsx
+++ b/data/input_excel/IEEE_detoxify_language_model.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021 12th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
+          <t>2024 International Conference on Trends in Quantum Computing and Emerging Business Technologies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Detox: NLP Based Classification And Euphemistic Text Substitution For Toxic Comments</t>
+          <t>DeTox: A WebApp for Toxic Comment Detection and Moderation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,54 +498,104 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The challenges of eliminating inadvertent hate online have grown more and more observable. With rapid increase in access to technology worldwide, the number of people present on the internet has increased exponentially. The rise in hateful and toxic content on the internet is many fold. Present solutions are largely based on censorship and removal of such content and can be the cause of mental disturbance to the concerned auditor. Biases of manual moderation can thwart the efforts taken to prevent the presence of hate speech on online platforms. However, posts that convey important meanings also fall prey to such systems, which should be avoided. Such systems fail to educate their authors what should have been done differently. Additionally, a system that combines detection and substitution algorithms is largely absent. A euphemistic substitution approach could prove to be more effective. In this project we have developed a classifier using Natural Language Processing and Machine Learning to detect toxic texts and provide euphemisms to erudite the user of words that can replace the toxicity present in the original texts. The classifier informs the online platform about the toxicity of the texts so they restrict such content to available on its platform. The euphemisms are aimed to make the user aware of the toxicity in the text and suggest replacements, which, if used, can make the text inoffensive. We aim to achieve self realisation on the user's part so we can target the issue at its source.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>The extensive adoption of internet platforms such as YouTube has transformed communication and information exchange, compelling people to share their opinions and participate in global conversations. Open communication can, however, also encourage the spread of offensive material, such as remarks that are derogatory or involve threats or hate speech. Such offensive remarks have the potential to damage users' mental health by fostering a hostile and unsafe environment that discourages meaningful relationships. We introduce DeTox, a web application that uses machine learning techniques to detect and eliminate harmful comments from YouTube videos in order to address this problem. For the purpose of classifying comments, DeTox uses ML and DL models, which guarantees precise identification of harmful content. The YouTube Data API is integrated by the system to retrieve comments from specific videos and eliminate any harmful remarks found. A detailed examination of the Toxic Comment Classification Challenge dataset, made available by Kaggle, was necessary for the development of DeTox. To find common patterns in hazardous language, preprocessing and examination of the data were done in order to examine the distribution of toxic and non-toxic remarks. FastAPI is a high-level Python web framework that makes web application development easier and is used by the DeTox online application. The application includes a user friendly interface for creating accounts, logging in, and selecting videos to moderate. The application also includes a user interface for reviewing toxic comments and choosing to remove or keep them. DeTox is a valuable tool for moderating comments on YouTube videos. The application utilizes a machine learning model to accurately identify toxic comments, and it provides a vi user-friendly interface for removing or keeping the comments. DeTox has the potential to make YouTube a more friendly and safe environment for users.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Video on demand;Web page design;Web pages;Machine learning;User interfaces;Solids;Real-time systems;Toxic comments;Machine Learning;API;YOUTUBE;BERT</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.1109/ICCCNT51525.2021.9579846</t>
+          <t>10.1109/TQCEBT59414.2024.10545229</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Jain, Somil, Kaushik, Garima, Prabhu, Pulin, Godbole, Anand</t>
+          <t>N, Prudhvish, G, Nagarajan, U, Bharath Kumar, Vardhan B, Harsha, L, Tharun Kumar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2023 International Conference on Machine Learning and Applications (ICMLA)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GPT-DETOX: An In-Context Learning-Based Paraphraser for Text Detoxification</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1528-1534</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Harmful and offensive communication or content is detrimental to social bonding and the mental state of users on social media platforms. Text detoxification is a crucial task in natural language processing (NLP), where the goal is removing profanity and toxicity from text while preserving its content. Supervised and unsupervised learning are common approaches for designing text detoxification solutions. However, these methods necessitate fine-tuning, leading to computational overhead. In this paper, we propose GPT-DETOX as a framework for prompt-based in-context learning for text detoxification using GPT-3.5 Turbo. We utilize zero-shot and few-shot prompting techniques for detoxifying input sentences. To generate few-shot prompts, we propose two methods: word-matching example selection (WMES) and context-matching example selection (CMES). We additionally take into account ensemble in-context learning (EICL) where the ensemble is shaped by base prompts from zero-shot and all few-shot settings. We use ParaDetox and APPDIA as benchmark detoxification datasets. Our experimental results show that the zero-shot solution achieves promising performance, while our best few-shot setting outperforms the state-of-the-art models on ParaDetox and shows comparable results on APPDIA. Our EICL solutions obtain the greatest performance, adding at least 10% improvement.. against both datasets.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Measurement;Toxicology;Social networking (online);Machine learning;Benchmark testing;Natural language processing;Task analysis;Text detoxification;style transfer;in-context learning</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1109/ICMLA58977.2023.00230</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pesaranghader, Ali, Verma, Nikhil, Bharadwaj, Manasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2023 International Conference on Electrical, Computer and Communication Engineering (ECCE)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>An Efficient Technique of Predicting Toxicity on Music Lyrics Machine Learning</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1-5</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>It is widely accepted that music is humanity's universal language since it can spread happiness and excitement throughout people's lives. Music is a form of art that is highly regarded worldwide. There are many ways that music lyrics affect our daily lives. In the music industry, it is crucial to prevent the reproduction of songs whose lyrics are toxic or unsuitable for children. Our mood might be impacted by listening to particularly toxic or non-toxic music. The listener's experience might be enhanced if the recommendation method eliminates toxicity. In this study, we use machine learning (ML) algorithms to classify lyrics from various musical genres and performers as toxic or non-toxic. Utilizing the Detoxify model, the toxicity score was generated and labelled the songs as toxic and non-toxic based on the scores. The study demonstrates that the configuration using the lyric data set along with TF-IDF vectorization and Ensemble of Logistic Regression, Support Vector Machine and Decision Tree as an algorithm surpasses all other designs with 94% accuracy. This classification will help the authority and policymakers of music industries to categorize the song based on the label and mention in the song description which is not appropriate for the children and set guidelines to prevent toxicity via songs.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Industries;Support vector machines;Toxicology;Machine learning algorithms;Computational modeling;Music;Organizations;Spotify Dataset;Logistic Regression;SVM;Natural Language Processing (NLP);Toxic Songs;TF-IDF Vectorizer</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>10.1109/ECCE57851.2023.10101658</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bin Noor, Nahiyan, Ahmed, Ishraq</t>
         </is>
